--- a/docss/trend/germany/E_neuron.xlsx
+++ b/docss/trend/germany/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,7 +1577,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D14"/>
+      <selection activeCell="F2" sqref="F2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,182 +1600,182 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="5">
-        <v>1.2112270586658269</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.5325058088637888</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.92254170472733676</v>
+      <c r="B2">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.3048832701751962</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.5598496443126351</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.0816318911965936</v>
+      <c r="B3">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.56</v>
+      </c>
+      <c r="D3">
+        <v>1.0820000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="5">
-        <v>1.2005012957379222</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.4982006421778351</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.9374329294078052</v>
+      <c r="B4">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.498</v>
+      </c>
+      <c r="D4">
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="5">
-        <v>1.2826804359210655</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.5791278600227088</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.0227428316138685</v>
+      <c r="B5">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.579</v>
+      </c>
+      <c r="D5">
+        <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.3743090108036995</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.6479089474305511</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.143049952108413</v>
+      <c r="B6">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="5">
-        <v>1.2898357006488368</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.4874368195887655</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.1123560522682965</v>
+      <c r="B7">
+        <v>1.29</v>
+      </c>
+      <c r="C7">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.1120000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="5">
-        <v>1.210594704025425</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.4238496497273445</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.0227544375229627</v>
+      <c r="B8">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="5">
-        <v>1.355857054470107</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.6315696369856596</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.1189653549809009</v>
+      <c r="B9">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="5">
-        <v>1.3755888709565625</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.6811293654609472</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.1111091156490147</v>
+      <c r="B10">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.681</v>
+      </c>
+      <c r="D10">
+        <v>1.111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="5">
-        <v>1.3917108892928809</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.6178192254155874</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.189108939608559</v>
+      <c r="B11">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="C11">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.1890000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
-        <v>1.4035951277473941</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.6523168329149485</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.1824858444742858</v>
+      <c r="B12">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.1819999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="5">
-        <v>1.5317298758309335</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1.8157613077200949</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.2786295581609011</v>
+      <c r="B13">
+        <v>1.532</v>
+      </c>
+      <c r="C13">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.2789999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="5">
-        <v>1.4113239396829158</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.7212903839536011</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.1462601295206696</v>
+      <c r="B14">
+        <v>1.411</v>
+      </c>
+      <c r="C14">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.1459999999999999</v>
       </c>
     </row>
   </sheetData>
